--- a/rwc2023 NZT.xlsx
+++ b/rwc2023 NZT.xlsx
@@ -81,9 +81,6 @@
     <t>Ireland vs Tonga</t>
   </si>
   <si>
-    <t>South Africa vs Tonga</t>
-  </si>
-  <si>
     <t>Australia vs Fiji</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>South Africa vs Romania</t>
   </si>
 </sst>
 </file>
@@ -1474,8 +1474,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,10 +1513,10 @@
         <v>45214.166666666664</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1533,10 +1533,10 @@
         <v>45214.333333333336</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1553,10 +1553,10 @@
         <v>45215.166666666664</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1573,10 +1573,10 @@
         <v>45215.333333333336</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,10 +1593,10 @@
         <v>45220.333333333336</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1613,10 +1613,10 @@
         <v>45221.333333333336</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1633,10 +1633,10 @@
         <v>45227.333333333336</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1653,10 +1653,10 @@
         <v>45228.333333333336</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>45187.041666666664</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>7</v>
@@ -1730,7 +1730,7 @@
         <v>45187.15625</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>9</v>
@@ -1741,7 +1741,7 @@
         <v>45187.291666666664</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>11</v>
@@ -1752,7 +1752,7 @@
         <v>45190.15625</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>4</v>
@@ -1763,7 +1763,7 @@
         <v>45191.291666666664</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>4</v>
@@ -1774,7 +1774,7 @@
         <v>45192.15625</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>11</v>
@@ -1785,7 +1785,7 @@
         <v>45193</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>9</v>
@@ -1796,7 +1796,7 @@
         <v>45193.197916666664</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>11</v>
@@ -1807,7 +1807,7 @@
         <v>45193.333333333336</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>7</v>
@@ -1818,7 +1818,7 @@
         <v>45194.197916666664</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>7</v>
@@ -1829,7 +1829,7 @@
         <v>45194.333333333336</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>9</v>
@@ -1840,7 +1840,7 @@
         <v>45197.197916666664</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>4</v>
@@ -1851,7 +1851,7 @@
         <v>45198.333333333336</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>11</v>
@@ -1862,7 +1862,7 @@
         <v>45199.333333333336</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>4</v>
@@ -1873,7 +1873,7 @@
         <v>45200.083333333336</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>11</v>
@@ -1884,7 +1884,7 @@
         <v>45200.197916666664</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>9</v>
@@ -1895,7 +1895,7 @@
         <v>45200.333333333336</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>7</v>
@@ -1906,7 +1906,7 @@
         <v>45201.197916666664</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>9</v>
@@ -1917,7 +1917,7 @@
         <v>45201.333333333336</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>7</v>
@@ -1928,20 +1928,20 @@
         <v>45205.333333333336</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
+      <c r="A35" s="24">
         <v>45206.333333333336</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
         <v>45207.083333333336</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>9</v>
@@ -1961,7 +1961,7 @@
         <v>45207.197916666664</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>11</v>
@@ -1972,7 +1972,7 @@
         <v>45207.333333333336</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>7</v>
@@ -1983,7 +1983,7 @@
         <v>45208</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>11</v>
@@ -1994,7 +1994,7 @@
         <v>45208.197916666664</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>7</v>
@@ -2005,7 +2005,7 @@
         <v>45208.333333333336</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="36" t="s">
         <v>9</v>
